--- a/biology/Médecine/Nerf_cochléaire/Nerf_cochléaire.xlsx
+++ b/biology/Médecine/Nerf_cochléaire/Nerf_cochléaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_cochl%C3%A9aire</t>
+          <t>Nerf_cochléaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cochléaire est une des deux parties du nerf auditif que l'on appelle fibre auditive nerveuse. Il est composé (chez l'homme) d'approximativement 30 000 fibres nerveuses qui permettent d'envoyer des informations auditives au cortex auditif, situé dans le lobe temporal du cerveau.
 Il est constitué de fibres nerveuses qui permettent de créer de connexions avec comme son nom l'indique, la cochlée; organe faisant partie de l'oreille où se trouvent des récepteurs auditifs.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_cochl%C3%A9aire</t>
+          <t>Nerf_cochléaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Trajet d'une onde sonore dans le nerf cochléaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la réception d'un son, les cellules ciliées de la cochlée créent des liaisons synaptiques avec les neurones du nerf cochléaire transformant ainsi un signal mécanique (son) en signal électrique.[incompréhensible]
 </t>
